--- a/src/test/resources/ExcelData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
+++ b/src/test/resources/ExcelData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="225">
   <si>
     <t>Diabetes</t>
   </si>
@@ -450,6 +450,9 @@
     <t xml:space="preserve"> pastries</t>
   </si>
   <si>
+    <t>mawa</t>
+  </si>
+  <si>
     <t>Garlic</t>
   </si>
   <si>
@@ -679,6 +682,15 @@
   </si>
   <si>
     <t>Frozen</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>yoghurt</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
 </sst>
 </file>
@@ -2016,10 +2028,12 @@
       <c r="C23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>111</v>
@@ -2046,7 +2060,7 @@
     </row>
     <row r="24" ht="24.0" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>112</v>
@@ -2057,10 +2071,10 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2084,10 +2098,10 @@
     </row>
     <row r="25" ht="24.0" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>38</v>
@@ -2095,10 +2109,10 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2122,10 +2136,10 @@
     </row>
     <row r="26" ht="46.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>70</v>
@@ -2133,10 +2147,10 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2160,10 +2174,10 @@
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>63</v>
@@ -2174,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2198,13 +2212,13 @@
     </row>
     <row r="28" ht="24.0" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2212,7 +2226,7 @@
         <v>110</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2236,21 +2250,21 @@
     </row>
     <row r="29" ht="35.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2274,10 +2288,10 @@
     </row>
     <row r="30" ht="24.0" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="11"/>
@@ -2286,7 +2300,7 @@
         <v>132</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2310,7 +2324,7 @@
     </row>
     <row r="31" ht="35.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
@@ -2320,7 +2334,7 @@
         <v>142</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2344,14 +2358,14 @@
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2376,7 +2390,7 @@
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2408,7 +2422,7 @@
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2472,7 +2486,7 @@
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2511,7 +2525,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2536,14 +2550,14 @@
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2575,7 +2589,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2600,14 +2614,14 @@
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2632,14 +2646,14 @@
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2671,7 +2685,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2696,7 +2710,7 @@
     </row>
     <row r="43" ht="13.5" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2726,7 +2740,7 @@
     </row>
     <row r="44" ht="13.5" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2756,7 +2770,7 @@
     </row>
     <row r="45" ht="13.5" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2786,7 +2800,7 @@
     </row>
     <row r="46" ht="13.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2816,7 +2830,7 @@
     </row>
     <row r="47" ht="13.5" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2846,7 +2860,7 @@
     </row>
     <row r="48" ht="13.5" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2876,7 +2890,7 @@
     </row>
     <row r="49" ht="13.5" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2906,7 +2920,7 @@
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2936,7 +2950,7 @@
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2966,7 +2980,7 @@
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2996,7 +3010,7 @@
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3026,7 +3040,7 @@
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3056,7 +3070,7 @@
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3086,7 +3100,7 @@
     </row>
     <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3116,7 +3130,7 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -3146,7 +3160,7 @@
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -3176,7 +3190,7 @@
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -3206,7 +3220,7 @@
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -3296,7 +3310,7 @@
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3326,7 +3340,7 @@
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -3386,7 +3400,7 @@
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3416,7 +3430,7 @@
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -3446,7 +3460,7 @@
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3476,7 +3490,7 @@
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -3506,7 +3520,7 @@
     </row>
     <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -3536,7 +3550,7 @@
     </row>
     <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -3596,7 +3610,7 @@
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -3656,7 +3670,7 @@
     </row>
     <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -3686,7 +3700,7 @@
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3716,7 +3730,7 @@
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -3746,7 +3760,7 @@
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -3776,7 +3790,7 @@
     </row>
     <row r="79" ht="13.5" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -3806,7 +3820,7 @@
     </row>
     <row r="80" ht="13.5" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -3836,7 +3850,7 @@
     </row>
     <row r="81" ht="13.5" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3866,7 +3880,7 @@
     </row>
     <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -3896,7 +3910,7 @@
     </row>
     <row r="83" ht="13.5" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -3926,7 +3940,7 @@
     </row>
     <row r="84" ht="13.5" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -3956,7 +3970,7 @@
     </row>
     <row r="85" ht="13.5" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4016,7 +4030,7 @@
     </row>
     <row r="87" ht="13.5" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4045,7 +4059,9 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="11"/>
+      <c r="A88" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -4073,7 +4089,9 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="11"/>
+      <c r="A89" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -4101,7 +4119,9 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="11"/>
+      <c r="A90" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -4129,7 +4149,9 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="11"/>
+      <c r="A91" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>

--- a/src/test/resources/ExcelData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
+++ b/src/test/resources/ExcelData/IngredientsAndComorbidities-ScrapperHackathon.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Diabetes-Hypothyroidism-Hyperte" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Allergy" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg75gx8kXe6IhPAjvfnUuNb1kP4Fw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mibj0jrBbEGPRqVwFXBKWq1jU/bXw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="388">
   <si>
     <t>Diabetes</t>
   </si>
@@ -327,6 +328,9 @@
     <t>Processed meat</t>
   </si>
   <si>
+    <t>apples</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pomegranate juice</t>
   </si>
   <si>
@@ -345,6 +349,9 @@
     <t>Dairy</t>
   </si>
   <si>
+    <t>apple</t>
+  </si>
+  <si>
     <t>margarine</t>
   </si>
   <si>
@@ -366,6 +373,9 @@
     <t>Soy products</t>
   </si>
   <si>
+    <t>Plaintain</t>
+  </si>
+  <si>
     <t xml:space="preserve"> peanut butter</t>
   </si>
   <si>
@@ -399,6 +409,9 @@
     <t>broccoli</t>
   </si>
   <si>
+    <t>Bananas</t>
+  </si>
+  <si>
     <t xml:space="preserve"> frozen</t>
   </si>
   <si>
@@ -411,6 +424,9 @@
     <t>argula</t>
   </si>
   <si>
+    <t>Papaya</t>
+  </si>
+  <si>
     <t>Flavoured curd</t>
   </si>
   <si>
@@ -429,6 +445,9 @@
     <t>Donut</t>
   </si>
   <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
     <t>Flavoured yogurt</t>
   </si>
   <si>
@@ -441,6 +460,9 @@
     <t>Fries</t>
   </si>
   <si>
+    <t>Guava</t>
+  </si>
+  <si>
     <t>corn flakes</t>
   </si>
   <si>
@@ -453,24 +475,45 @@
     <t>mawa</t>
   </si>
   <si>
+    <t xml:space="preserve">wine </t>
+  </si>
+  <si>
     <t>Garlic</t>
   </si>
   <si>
+    <t>Amrud</t>
+  </si>
+  <si>
     <t xml:space="preserve"> puffed rice</t>
   </si>
   <si>
+    <t xml:space="preserve">Skimmed Milk </t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
     <t>Pomegranate</t>
   </si>
   <si>
     <t>vegetable oil</t>
   </si>
   <si>
+    <t>Amrood</t>
+  </si>
+  <si>
     <t xml:space="preserve"> bran flakes</t>
   </si>
   <si>
     <t>Okra</t>
   </si>
   <si>
+    <t xml:space="preserve">Fresh Curd </t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
     <t>Cinnamon</t>
   </si>
   <si>
@@ -483,21 +526,40 @@
     <t>raspberry</t>
   </si>
   <si>
+    <t>Curd</t>
+  </si>
+  <si>
+    <t>chawal</t>
+  </si>
+  <si>
     <t>Pistachios</t>
   </si>
   <si>
     <t xml:space="preserve"> canola oil</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Berry</t>
+  </si>
+  <si>
     <t>Honey</t>
   </si>
   <si>
     <t>Strawberry</t>
   </si>
   <si>
+    <t>Dahi</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t xml:space="preserve"> rapeseed oil</t>
   </si>
   <si>
+    <t>berries</t>
+  </si>
+  <si>
     <t>Maple syrup</t>
   </si>
   <si>
@@ -507,177 +569,520 @@
     <t>salami</t>
   </si>
   <si>
+    <t>low fat dahi</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
     <t xml:space="preserve"> sunflower oil</t>
   </si>
   <si>
+    <t xml:space="preserve">Mustard Green
+</t>
+  </si>
+  <si>
     <t>Jaggery</t>
   </si>
   <si>
     <t>pastry</t>
   </si>
   <si>
+    <t>coca-cola</t>
+  </si>
+  <si>
     <t>unsalted nut</t>
   </si>
   <si>
     <t xml:space="preserve"> safflower oil</t>
   </si>
   <si>
+    <t>Sarso ka saag</t>
+  </si>
+  <si>
     <t>Sweet</t>
   </si>
   <si>
     <t>Bean</t>
   </si>
   <si>
+    <t>groundnut</t>
+  </si>
+  <si>
+    <t>whisked sour low-fat curds (dahi)</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>Sarso</t>
+  </si>
+  <si>
     <t>Candies</t>
   </si>
   <si>
+    <t>ground nut</t>
+  </si>
+  <si>
+    <t>Ghee</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
     <t>Doughnut</t>
   </si>
   <si>
+    <t xml:space="preserve">Snake Guard
+</t>
+  </si>
+  <si>
     <t>Chocolate</t>
   </si>
   <si>
+    <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>Gobi</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
     <t>turkey</t>
   </si>
   <si>
     <t>Refined flour</t>
   </si>
   <si>
+    <t>Fresh Curd</t>
+  </si>
+  <si>
+    <t>Gobhi</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>pickle</t>
+  </si>
+  <si>
+    <t>Gajar</t>
+  </si>
+  <si>
     <t>all purpose flour</t>
   </si>
   <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>achaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaggery
+</t>
+  </si>
+  <si>
+    <t>Carrot (Gajar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy </t>
+  </si>
+  <si>
+    <t>straw berry</t>
+  </si>
+  <si>
+    <t>pickles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honey
+</t>
+  </si>
+  <si>
     <t>Bacon</t>
   </si>
   <si>
+    <t>Fresh curd (Dahi)</t>
+  </si>
+  <si>
+    <t>Soyabean</t>
+  </si>
+  <si>
+    <t>achar</t>
+  </si>
+  <si>
+    <t>Cinnamon toast crunch</t>
+  </si>
+  <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
+    <t>Lowfat yogurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soybean </t>
+  </si>
+  <si>
     <t>Pista</t>
   </si>
   <si>
+    <t xml:space="preserve">Granola
+</t>
+  </si>
+  <si>
     <t>hot dog</t>
   </si>
   <si>
+    <t>lowfat yoghurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy sauce </t>
+  </si>
+  <si>
     <t>Dark chocolate 60%</t>
   </si>
   <si>
+    <t>brownie</t>
+  </si>
+  <si>
+    <t>Soya</t>
+  </si>
+  <si>
     <t>Dark chocolate 70%</t>
   </si>
   <si>
+    <t xml:space="preserve">cereal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
     <t>chicken nugget</t>
   </si>
   <si>
+    <t xml:space="preserve">Soy milk
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">50% Cocoa Dark Chocolate </t>
   </si>
   <si>
+    <t>powdered sugar</t>
+  </si>
+  <si>
     <t>chicken patties</t>
   </si>
   <si>
+    <t>low fat Fresh curd (dahi)</t>
+  </si>
+  <si>
+    <t>Soy Flour</t>
+  </si>
+  <si>
     <t>60% Cocoa Dark Chocolate</t>
   </si>
   <si>
+    <t>maple syrup</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>Soy</t>
+  </si>
+  <si>
     <t>70% Cocoa Dark Chocolate</t>
   </si>
   <si>
+    <t>Soy Products</t>
+  </si>
+  <si>
     <t>Jam</t>
   </si>
   <si>
+    <t>karela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaggery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edamame
+</t>
+  </si>
+  <si>
     <t>Jelly</t>
   </si>
   <si>
+    <t>karele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honey </t>
+  </si>
+  <si>
+    <t>fennel vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempeh
+</t>
+  </si>
+  <si>
     <t>mango</t>
   </si>
   <si>
+    <t>bhindi</t>
+  </si>
+  <si>
+    <t>sarso ka saag</t>
+  </si>
+  <si>
     <t xml:space="preserve"> cucumber</t>
   </si>
   <si>
+    <t>palak</t>
+  </si>
+  <si>
+    <t>Soy Milk</t>
+  </si>
+  <si>
     <t xml:space="preserve"> tomato</t>
   </si>
   <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>Anaar</t>
+  </si>
+  <si>
     <t>pineapple</t>
   </si>
   <si>
+    <t>Anar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> peach</t>
   </si>
   <si>
+    <t>Dark cocoa chocolate 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pear</t>
+  </si>
+  <si>
+    <t>Frozen food</t>
+  </si>
+  <si>
+    <t>Dark cocoa chocolate 70%</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mixed fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy sauce
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mandarine</t>
+  </si>
+  <si>
+    <t>Sodas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cherries</t>
+  </si>
+  <si>
+    <t>Energy drinks containing caffeine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream
+</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Packaged food- noodles, soups, salad dressings, sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonnaise </t>
+  </si>
+  <si>
+    <t>Custard</t>
+  </si>
+  <si>
+    <t>Palmolein oil</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>dates (khajur)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> mango</t>
   </si>
   <si>
-    <t xml:space="preserve"> pear</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mixed fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mandarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cherries</t>
-  </si>
-  <si>
-    <t>Chips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayonnaise </t>
-  </si>
-  <si>
-    <t>Palmolein oil</t>
+    <t xml:space="preserve">Aaata </t>
+  </si>
+  <si>
+    <t>khajur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehu ka aata
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> peas</t>
+  </si>
+  <si>
+    <t>Whole wheat</t>
+  </si>
+  <si>
+    <t>Aata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whole wheat flour (gehun ka atta)</t>
+  </si>
+  <si>
+    <t>Atta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gehun</t>
+  </si>
+  <si>
+    <t>whole wheat flour</t>
+  </si>
+  <si>
+    <t>gehun ka atta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole wheat flour (gehun ka atta)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cake</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>Gehun</t>
+  </si>
+  <si>
+    <t>noodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cookie</t>
+  </si>
+  <si>
+    <t>tomato sauce</t>
+  </si>
+  <si>
+    <t>maida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> croissant</t>
+  </si>
+  <si>
+    <t>chilli sauce</t>
+  </si>
+  <si>
+    <t>Sweetened tea</t>
+  </si>
+  <si>
+    <t>ground-nut</t>
+  </si>
+  <si>
+    <t>icecream</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sweetened coffee</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>Packaged snacks</t>
+  </si>
+  <si>
+    <t>Soft drinks</t>
+  </si>
+  <si>
+    <t>Fresh Curd
+Skimmed Milk
+Full Fat Milk</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> melon</t>
+  </si>
+  <si>
+    <t>dahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cheese</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>paneer</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>packaged</t>
   </si>
   <si>
     <t>powdered milk</t>
   </si>
   <si>
-    <t xml:space="preserve"> bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> peas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cookie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> croissant</t>
-  </si>
-  <si>
-    <t>Sweetened tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sweetened coffee</t>
-  </si>
-  <si>
-    <t>Packaged snacks</t>
-  </si>
-  <si>
-    <t>Soft drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> melon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> butter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>packaged</t>
-  </si>
-  <si>
     <t>cherry</t>
   </si>
   <si>
     <t>orange</t>
   </si>
   <si>
+    <t xml:space="preserve">butter
+</t>
+  </si>
+  <si>
     <t>chicken patty</t>
   </si>
   <si>
+    <t>white butter</t>
+  </si>
+  <si>
+    <t>Full Fat Milk</t>
+  </si>
+  <si>
     <t>snacks</t>
   </si>
   <si>
@@ -687,17 +1092,120 @@
     <t>whip</t>
   </si>
   <si>
-    <t>yoghurt</t>
+    <t>coca cola</t>
   </si>
   <si>
     <t>cream</t>
+  </si>
+  <si>
+    <t>low fat paneer</t>
+  </si>
+  <si>
+    <t>Maida</t>
+  </si>
+  <si>
+    <t>wheat flour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavoured </t>
+  </si>
+  <si>
+    <t>sparkling water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavored </t>
+  </si>
+  <si>
+    <t>seltzer water</t>
+  </si>
+  <si>
+    <t>sparkling water (seltzer water)</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>skimmed milk</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Skimmed milk</t>
+  </si>
+  <si>
+    <t>Flavoured dahi</t>
+  </si>
+  <si>
+    <t>Flavored dahi</t>
+  </si>
+  <si>
+    <t>Flavored low-fat dahi</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>Powdered sugar</t>
+  </si>
+  <si>
+    <t>flake</t>
+  </si>
+  <si>
+    <t>chaval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skimmed Milk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carbonated wine</t>
+  </si>
+  <si>
+    <t>Low-fat Paneer</t>
+  </si>
+  <si>
+    <t>Lowfat paneer</t>
+  </si>
+  <si>
+    <t>Low fat Paneer</t>
+  </si>
+  <si>
+    <t>chawal aata</t>
+  </si>
+  <si>
+    <t>peanuts</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>pistachio</t>
+  </si>
+  <si>
+    <t>shell fish</t>
+  </si>
+  <si>
+    <t>seafood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -707,19 +1215,19 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -735,17 +1243,33 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +1282,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22FF06"/>
+        <bgColor rgb="FF22FF06"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -797,11 +1333,66 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -822,13 +1413,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -837,17 +1425,83 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,6 +1512,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1069,7 +1727,7 @@
     <col customWidth="1" min="3" max="4" width="22.63"/>
     <col customWidth="1" min="5" max="5" width="26.38"/>
     <col customWidth="1" min="6" max="6" width="30.0"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="7" max="7" width="25.63"/>
     <col customWidth="1" min="8" max="8" width="20.13"/>
     <col customWidth="1" min="9" max="26" width="14.5"/>
   </cols>
@@ -1158,25 +1816,25 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3"/>
@@ -1199,28 +1857,28 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
@@ -1243,28 +1901,28 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" ht="35.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="3"/>
@@ -1287,28 +1945,28 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="3"/>
@@ -1331,28 +1989,28 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="3"/>
@@ -1375,28 +2033,28 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="3"/>
@@ -1419,28 +2077,28 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="24.0" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="3"/>
@@ -1463,28 +2121,28 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="3"/>
@@ -1507,28 +2165,28 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="35.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="3"/>
@@ -1551,28 +2209,28 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="45.0" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="3"/>
@@ -1595,28 +2253,28 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="35.25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="3"/>
@@ -1639,28 +2297,28 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>96</v>
       </c>
       <c r="I14" s="3"/>
@@ -1683,28 +2341,30 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1725,28 +2385,30 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1767,28 +2429,30 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1809,28 +2473,30 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1851,28 +2517,30 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="D19" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1893,28 +2561,30 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1935,28 +2605,30 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" ht="46.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1977,28 +2649,30 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" ht="51.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2019,26 +2693,30 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="3"/>
+      <c r="A23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>154</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2059,24 +2737,30 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24" ht="24.0" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="D24" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2097,24 +2781,30 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" ht="24.0" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="D25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2135,24 +2825,30 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26" ht="46.5" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="3"/>
+      <c r="D26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2173,24 +2869,30 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="G27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2211,24 +2913,30 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" ht="24.0" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="3"/>
+      <c r="A28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2249,24 +2957,30 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="C29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2287,22 +3001,30 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" ht="24.0" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="3"/>
+      <c r="A30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2323,20 +3045,30 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="35.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="3"/>
+      <c r="A31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2357,18 +3089,30 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2389,18 +3133,30 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="8" t="s">
+      <c r="A33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2421,18 +3177,30 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2453,18 +3221,30 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="B35" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2485,18 +3265,30 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12" t="s">
+      <c r="A36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2516,19 +3308,29 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2549,18 +3351,26 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2581,19 +3391,29 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>245</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2613,17 +3433,23 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="A40" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2645,17 +3471,23 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="3"/>
+      <c r="A41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2677,17 +3509,23 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="3"/>
+      <c r="B42" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2709,15 +3547,23 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2739,15 +3585,23 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>267</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2769,15 +3623,23 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2799,15 +3661,23 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>273</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2829,15 +3699,23 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2859,15 +3737,21 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2889,15 +3773,21 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2919,15 +3809,21 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2949,15 +3845,19 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2980,14 +3880,18 @@
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -3009,15 +3913,19 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="3"/>
+      <c r="A53" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="15" t="s">
+        <v>292</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -3038,16 +3946,20 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="3"/>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -3069,15 +3981,19 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="3"/>
+      <c r="A55" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -3099,15 +4015,19 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="3"/>
+      <c r="A56" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -3130,14 +4050,18 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -3160,14 +4084,18 @@
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="15" t="s">
+        <v>306</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -3189,15 +4117,19 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="3"/>
+      <c r="A59" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -3219,15 +4151,19 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="3"/>
+      <c r="A60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -3250,14 +4186,18 @@
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -3278,16 +4218,20 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="3"/>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -3309,15 +4253,19 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -3339,15 +4287,19 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -3370,14 +4322,18 @@
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="3"/>
+        <v>320</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -3399,15 +4355,19 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -3429,15 +4389,19 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="3"/>
+      <c r="A67" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -3460,14 +4424,16 @@
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -3489,15 +4455,17 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="3"/>
+      <c r="A69" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="15" t="s">
+        <v>201</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -3519,15 +4487,17 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="3"/>
+      <c r="A70" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="15" t="s">
+        <v>332</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -3549,15 +4519,17 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="3"/>
+      <c r="A71" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="15" t="s">
+        <v>333</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -3579,15 +4551,17 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="3"/>
+      <c r="A72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="15" t="s">
+        <v>335</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -3610,14 +4584,16 @@
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -3639,15 +4615,17 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="3"/>
+      <c r="A74" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -3669,15 +4647,17 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="3"/>
+      <c r="A75" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="15" t="s">
+        <v>338</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -3699,15 +4679,17 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="15" t="s">
+        <v>339</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3729,15 +4711,17 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="3"/>
+      <c r="A77" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="15" t="s">
+        <v>340</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -3759,15 +4743,17 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="3"/>
+      <c r="A78" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -3789,15 +4775,17 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="3"/>
+      <c r="A79" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -3819,15 +4807,17 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="3"/>
+      <c r="A80" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="15" t="s">
+        <v>292</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -3849,15 +4839,17 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="3"/>
+      <c r="A81" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -3879,15 +4871,17 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="3"/>
+      <c r="A82" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -3909,15 +4903,17 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="3"/>
+      <c r="A83" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="15" t="s">
+        <v>348</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -3939,15 +4935,17 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="3"/>
+      <c r="A84" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -3969,15 +4967,17 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="3"/>
+      <c r="A85" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -3999,15 +4999,17 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="3"/>
+      <c r="A86" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -4029,15 +5031,17 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="3"/>
+      <c r="A87" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="15" t="s">
+        <v>352</v>
+      </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -4059,15 +5063,17 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="3"/>
+      <c r="A88" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -4089,15 +5095,17 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="3"/>
+      <c r="A89" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="15" t="s">
+        <v>354</v>
+      </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -4119,15 +5127,17 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="3"/>
+      <c r="A90" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="15" t="s">
+        <v>356</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -4149,15 +5159,17 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="3"/>
+      <c r="A91" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="36" t="s">
+        <v>358</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -4179,13 +5191,17 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="3"/>
+      <c r="A92" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="15" t="s">
+        <v>360</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -4207,13 +5223,17 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="3"/>
+      <c r="A93" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -4235,13 +5255,17 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="3"/>
+      <c r="A94" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="15" t="s">
+        <v>363</v>
+      </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -4263,12 +5287,14 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="A95" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -4291,12 +5317,14 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="A96" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -4319,12 +5347,14 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="A97" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -4347,12 +5377,14 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="A98" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -4375,12 +5407,14 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="A99" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -4403,12 +5437,14 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
+      <c r="A100" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -4431,12 +5467,14 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
+      <c r="A101" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -4459,12 +5497,14 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+      <c r="A102" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -4487,12 +5527,14 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="A103" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4515,12 +5557,14 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+      <c r="A104" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -4543,12 +5587,14 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="A105" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -4571,12 +5617,14 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="A106" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -4599,12 +5647,14 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
+      <c r="A107" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -4627,12 +5677,14 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="A108" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -4655,12 +5707,14 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="A109" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -4683,12 +5737,14 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
+      <c r="A110" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -4711,12 +5767,14 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
+      <c r="A111" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -4739,12 +5797,14 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
+      <c r="A112" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -4767,12 +5827,14 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
+      <c r="A113" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -4795,12 +5857,14 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
+      <c r="A114" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -4823,12 +5887,14 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
+      <c r="A115" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -4851,12 +5917,14 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="A116" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -4879,12 +5947,14 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
+      <c r="A117" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -4907,12 +5977,14 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+      <c r="A118" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -4935,12 +6007,14 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
+      <c r="A119" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -4963,12 +6037,14 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="A120" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -4991,12 +6067,14 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="A121" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -5019,12 +6097,14 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
+      <c r="A122" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -5047,12 +6127,14 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
+      <c r="A123" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -5075,12 +6157,12 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -5103,12 +6185,12 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -5131,12 +6213,12 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -5159,12 +6241,12 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127" ht="13.5" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -5187,12 +6269,12 @@
       <c r="Z127" s="4"/>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -5215,12 +6297,12 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -5243,12 +6325,12 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -5271,12 +6353,12 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -5299,12 +6381,12 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -5327,12 +6409,12 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133" ht="13.5" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -5355,12 +6437,12 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -5383,12 +6465,12 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135" ht="13.5" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -5411,12 +6493,12 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -5439,12 +6521,12 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137" ht="13.5" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -5467,12 +6549,12 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138" ht="13.5" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -5495,12 +6577,12 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -5523,12 +6605,12 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -5551,12 +6633,12 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -5579,12 +6661,12 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -5607,12 +6689,12 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -5635,12 +6717,12 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -5663,12 +6745,12 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -5691,12 +6773,12 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -5719,12 +6801,12 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -5747,12 +6829,12 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -5775,12 +6857,12 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -5803,12 +6885,12 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -5831,12 +6913,12 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -5859,12 +6941,12 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -5887,12 +6969,12 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153" ht="13.5" customHeight="1">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -5915,12 +6997,12 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154" ht="13.5" customHeight="1">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -5943,12 +7025,12 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -5971,12 +7053,12 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156" ht="13.5" customHeight="1">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -5999,12 +7081,12 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157" ht="13.5" customHeight="1">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -6027,12 +7109,12 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158" ht="13.5" customHeight="1">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -6055,12 +7137,12 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159" ht="13.5" customHeight="1">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -6083,12 +7165,12 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160" ht="13.5" customHeight="1">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -6111,12 +7193,12 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161" ht="13.5" customHeight="1">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -6139,12 +7221,12 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162" ht="13.5" customHeight="1">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -6167,12 +7249,12 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163" ht="13.5" customHeight="1">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -6195,12 +7277,12 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -6223,12 +7305,12 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -6251,12 +7333,12 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166" ht="13.5" customHeight="1">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -6279,12 +7361,12 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167" ht="13.5" customHeight="1">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -6307,12 +7389,12 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168" ht="13.5" customHeight="1">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -6335,12 +7417,12 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169" ht="13.5" customHeight="1">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -6363,12 +7445,12 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170" ht="13.5" customHeight="1">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -6391,12 +7473,12 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171" ht="13.5" customHeight="1">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -6419,12 +7501,12 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172" ht="13.5" customHeight="1">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -6447,12 +7529,12 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173" ht="13.5" customHeight="1">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -6475,12 +7557,12 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174" ht="13.5" customHeight="1">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -6503,12 +7585,12 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175" ht="13.5" customHeight="1">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -6531,12 +7613,12 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176" ht="13.5" customHeight="1">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -6559,12 +7641,12 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177" ht="13.5" customHeight="1">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -6587,12 +7669,12 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178" ht="13.5" customHeight="1">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -6615,12 +7697,12 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179" ht="13.5" customHeight="1">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -6643,12 +7725,12 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -6671,12 +7753,12 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181" ht="13.5" customHeight="1">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -6699,12 +7781,12 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182" ht="13.5" customHeight="1">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -6727,12 +7809,12 @@
       <c r="Z182" s="4"/>
     </row>
     <row r="183" ht="13.5" customHeight="1">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -6755,12 +7837,12 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184" ht="13.5" customHeight="1">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -6783,12 +7865,12 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185" ht="13.5" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -6811,12 +7893,12 @@
       <c r="Z185" s="4"/>
     </row>
     <row r="186" ht="13.5" customHeight="1">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -6839,12 +7921,12 @@
       <c r="Z186" s="4"/>
     </row>
     <row r="187" ht="13.5" customHeight="1">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -6867,12 +7949,12 @@
       <c r="Z187" s="4"/>
     </row>
     <row r="188" ht="13.5" customHeight="1">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -6895,12 +7977,12 @@
       <c r="Z188" s="4"/>
     </row>
     <row r="189" ht="13.5" customHeight="1">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -6923,12 +8005,12 @@
       <c r="Z189" s="4"/>
     </row>
     <row r="190" ht="13.5" customHeight="1">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -6951,12 +8033,12 @@
       <c r="Z190" s="4"/>
     </row>
     <row r="191" ht="13.5" customHeight="1">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -6979,12 +8061,12 @@
       <c r="Z191" s="4"/>
     </row>
     <row r="192" ht="13.5" customHeight="1">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -7007,12 +8089,12 @@
       <c r="Z192" s="4"/>
     </row>
     <row r="193" ht="13.5" customHeight="1">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -7035,12 +8117,12 @@
       <c r="Z193" s="4"/>
     </row>
     <row r="194" ht="13.5" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -7063,12 +8145,12 @@
       <c r="Z194" s="4"/>
     </row>
     <row r="195" ht="13.5" customHeight="1">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -7091,12 +8173,12 @@
       <c r="Z195" s="4"/>
     </row>
     <row r="196" ht="13.5" customHeight="1">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -7119,12 +8201,12 @@
       <c r="Z196" s="4"/>
     </row>
     <row r="197" ht="13.5" customHeight="1">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -7147,12 +8229,12 @@
       <c r="Z197" s="4"/>
     </row>
     <row r="198" ht="13.5" customHeight="1">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -7175,12 +8257,12 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199" ht="13.5" customHeight="1">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -7203,12 +8285,12 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200" ht="13.5" customHeight="1">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -7231,12 +8313,12 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201" ht="13.5" customHeight="1">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -7259,12 +8341,12 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202" ht="13.5" customHeight="1">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -7287,12 +8369,12 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -7315,12 +8397,12 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204" ht="13.5" customHeight="1">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -7343,12 +8425,12 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205" ht="13.5" customHeight="1">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -7371,12 +8453,12 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206" ht="13.5" customHeight="1">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -7399,12 +8481,12 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207" ht="13.5" customHeight="1">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -7427,12 +8509,12 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208" ht="13.5" customHeight="1">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -7455,12 +8537,12 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
@@ -7483,12 +8565,12 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210" ht="13.5" customHeight="1">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -7511,12 +8593,12 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211" ht="13.5" customHeight="1">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -7539,12 +8621,12 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212" ht="13.5" customHeight="1">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -7567,12 +8649,12 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213" ht="13.5" customHeight="1">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -7595,12 +8677,12 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214" ht="13.5" customHeight="1">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-      <c r="F214" s="11"/>
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -7623,12 +8705,12 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215" ht="13.5" customHeight="1">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="11"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -7651,12 +8733,12 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216" ht="13.5" customHeight="1">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -7679,12 +8761,12 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217" ht="13.5" customHeight="1">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -7707,12 +8789,12 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218" ht="13.5" customHeight="1">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-      <c r="F218" s="11"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -7735,12 +8817,12 @@
       <c r="Z218" s="4"/>
     </row>
     <row r="219" ht="13.5" customHeight="1">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -7763,12 +8845,12 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220" ht="13.5" customHeight="1">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -7791,12 +8873,12 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221" ht="13.5" customHeight="1">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
-      <c r="F221" s="11"/>
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -7819,12 +8901,12 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222" ht="13.5" customHeight="1">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-      <c r="F222" s="11"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -7847,12 +8929,12 @@
       <c r="Z222" s="4"/>
     </row>
     <row r="223" ht="13.5" customHeight="1">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -7875,12 +8957,12 @@
       <c r="Z223" s="4"/>
     </row>
     <row r="224" ht="13.5" customHeight="1">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -7903,12 +8985,12 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225" ht="13.5" customHeight="1">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -7931,12 +9013,12 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226" ht="13.5" customHeight="1">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -7959,12 +9041,12 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227" ht="13.5" customHeight="1">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -7987,12 +9069,12 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228" ht="13.5" customHeight="1">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -8015,12 +9097,12 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229" ht="13.5" customHeight="1">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -8043,12 +9125,12 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230" ht="13.5" customHeight="1">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="11"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -8071,12 +9153,12 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231" ht="13.5" customHeight="1">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -8099,12 +9181,12 @@
       <c r="Z231" s="4"/>
     </row>
     <row r="232" ht="13.5" customHeight="1">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="11"/>
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -8127,12 +9209,12 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233" ht="13.5" customHeight="1">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -8155,12 +9237,12 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234" ht="13.5" customHeight="1">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="11"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -8183,12 +9265,12 @@
       <c r="Z234" s="4"/>
     </row>
     <row r="235" ht="13.5" customHeight="1">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
-      <c r="F235" s="11"/>
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -8211,12 +9293,12 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236" ht="13.5" customHeight="1">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -8239,12 +9321,12 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237" ht="13.5" customHeight="1">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -8267,12 +9349,12 @@
       <c r="Z237" s="4"/>
     </row>
     <row r="238" ht="13.5" customHeight="1">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -8295,12 +9377,12 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239" ht="13.5" customHeight="1">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -8323,12 +9405,12 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240" ht="13.5" customHeight="1">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="F240" s="11"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -8351,12 +9433,12 @@
       <c r="Z240" s="4"/>
     </row>
     <row r="241" ht="13.5" customHeight="1">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -8379,12 +9461,12 @@
       <c r="Z241" s="4"/>
     </row>
     <row r="242" ht="13.5" customHeight="1">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="11"/>
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -8407,12 +9489,12 @@
       <c r="Z242" s="4"/>
     </row>
     <row r="243" ht="13.5" customHeight="1">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-      <c r="F243" s="11"/>
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -8435,12 +9517,12 @@
       <c r="Z243" s="4"/>
     </row>
     <row r="244" ht="13.5" customHeight="1">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
@@ -8463,12 +9545,12 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245" ht="13.5" customHeight="1">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-      <c r="F245" s="11"/>
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
@@ -8491,12 +9573,12 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246" ht="13.5" customHeight="1">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-      <c r="F246" s="11"/>
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -8519,12 +9601,12 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247" ht="13.5" customHeight="1">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="11"/>
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -8547,12 +9629,12 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248" ht="13.5" customHeight="1">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-      <c r="F248" s="11"/>
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -8575,12 +9657,12 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249" ht="13.5" customHeight="1">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="11"/>
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -8603,12 +9685,12 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250" ht="13.5" customHeight="1">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -8631,12 +9713,12 @@
       <c r="Z250" s="4"/>
     </row>
     <row r="251" ht="13.5" customHeight="1">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -8659,12 +9741,12 @@
       <c r="Z251" s="4"/>
     </row>
     <row r="252" ht="13.5" customHeight="1">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
-      <c r="F252" s="11"/>
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -8687,12 +9769,12 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253" ht="13.5" customHeight="1">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
-      <c r="F253" s="11"/>
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -8715,12 +9797,12 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254" ht="13.5" customHeight="1">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -8743,12 +9825,12 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255" ht="13.5" customHeight="1">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
-      <c r="F255" s="11"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -8771,12 +9853,12 @@
       <c r="Z255" s="4"/>
     </row>
     <row r="256" ht="13.5" customHeight="1">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
@@ -8799,12 +9881,12 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257" ht="13.5" customHeight="1">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
-      <c r="F257" s="11"/>
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
@@ -8827,12 +9909,12 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258" ht="13.5" customHeight="1">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
@@ -8855,12 +9937,12 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259" ht="13.5" customHeight="1">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="11"/>
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
@@ -8883,12 +9965,12 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260" ht="13.5" customHeight="1">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -8911,12 +9993,12 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261" ht="13.5" customHeight="1">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
@@ -8939,12 +10021,12 @@
       <c r="Z261" s="4"/>
     </row>
     <row r="262" ht="13.5" customHeight="1">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -8967,12 +10049,12 @@
       <c r="Z262" s="4"/>
     </row>
     <row r="263" ht="13.5" customHeight="1">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="11"/>
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
@@ -8995,12 +10077,12 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264" ht="13.5" customHeight="1">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
@@ -9023,12 +10105,12 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265" ht="13.5" customHeight="1">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
@@ -9051,12 +10133,12 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266" ht="13.5" customHeight="1">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
-      <c r="F266" s="11"/>
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -9079,12 +10161,12 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267" ht="13.5" customHeight="1">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
@@ -9107,12 +10189,12 @@
       <c r="Z267" s="4"/>
     </row>
     <row r="268" ht="13.5" customHeight="1">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -9135,12 +10217,12 @@
       <c r="Z268" s="4"/>
     </row>
     <row r="269" ht="13.5" customHeight="1">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
@@ -9163,12 +10245,12 @@
       <c r="Z269" s="4"/>
     </row>
     <row r="270" ht="13.5" customHeight="1">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-      <c r="F270" s="11"/>
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
@@ -9191,12 +10273,12 @@
       <c r="Z270" s="4"/>
     </row>
     <row r="271" ht="13.5" customHeight="1">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-      <c r="F271" s="11"/>
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
@@ -9219,12 +10301,12 @@
       <c r="Z271" s="4"/>
     </row>
     <row r="272" ht="13.5" customHeight="1">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -9247,12 +10329,12 @@
       <c r="Z272" s="4"/>
     </row>
     <row r="273" ht="13.5" customHeight="1">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
-      <c r="F273" s="11"/>
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
@@ -9275,12 +10357,12 @@
       <c r="Z273" s="4"/>
     </row>
     <row r="274" ht="13.5" customHeight="1">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
@@ -9302,31 +10384,31 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-      <c r="O275" s="3"/>
-      <c r="P275" s="3"/>
-      <c r="Q275" s="3"/>
-      <c r="R275" s="3"/>
-      <c r="S275" s="3"/>
-      <c r="T275" s="3"/>
-      <c r="U275" s="3"/>
-      <c r="V275" s="3"/>
-      <c r="W275" s="3"/>
-      <c r="X275" s="3"/>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+      <c r="N275" s="4"/>
+      <c r="O275" s="4"/>
+      <c r="P275" s="4"/>
+      <c r="Q275" s="4"/>
+      <c r="R275" s="4"/>
+      <c r="S275" s="4"/>
+      <c r="T275" s="4"/>
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+      <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
     </row>
@@ -29602,34 +30684,6 @@
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -29645,4 +30699,84 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>